--- a/templates/thongkedoanvaotheodonvi.xlsx
+++ b/templates/thongkedoanvaotheodonvi.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>STT</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Quốc tịch</t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>Đơn vị tiếp</t>
   </si>
 </sst>
 </file>
@@ -396,26 +402,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H2"/>
+  <dimension ref="A2:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="86.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="3" width="26.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="86.140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -423,21 +430,27 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
